--- a/Lab1/src/Sorting Data.xlsx
+++ b/Lab1/src/Sorting Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/ncrothers_smu_edu/Documents/CS 3353/Repo/Lab1/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawx5\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{6AEBBAB8-8492-42F5-9CE2-1C1466809F19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{555434DF-ABB8-4823-8FA8-248577194576}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF675368-1689-41C1-AED1-5098D5F5C1F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31C42D4E-3FC1-484D-A2E5-3DF90AEB6035}"/>
+    <workbookView xWindow="14340" yWindow="4992" windowWidth="17280" windowHeight="9024" xr2:uid="{31C42D4E-3FC1-484D-A2E5-3DF90AEB6035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Bubble</t>
   </si>
@@ -146,6 +146,18 @@
     <tableColumn id="1" xr3:uid="{A60385C3-B17C-42B1-A2F8-DE4A743312EE}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{B7D3961F-7971-4519-80CD-590F680B62EE}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{14312E1E-B8D9-43A2-9447-A82099F183CF}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CB619DE-3ACB-4430-94B6-99DCAEF86809}" name="Table1" displayName="Table1" ref="B2:D6" totalsRowShown="0">
+  <autoFilter ref="B2:D6" xr:uid="{1D8AC638-C5BF-4D13-9B4D-6D42EAFF805A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B7200489-5016-43C0-843E-317BA082E7D7}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{15C64DDE-C4EF-4136-9A83-5ED817AD5251}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{8CC1CBE5-D8D0-4B23-83B4-0C9DEF89818F}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848E1C18-6FA8-49DC-A256-3FC404259571}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D12"/>
+      <selection activeCell="B21" sqref="B21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +474,7 @@
     <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>10</v>
       </c>
@@ -476,102 +488,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="C2">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="D2">
-        <v>4.5</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
-      </c>
-      <c r="H2">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="I2">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="J2">
-        <v>4.5000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="C3">
-        <v>0.39999999999999997</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>5.5</v>
-      </c>
-      <c r="H3">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="I3">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="J3">
-        <v>5.4999999999999999E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.39999999999999997</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="I4">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="J4">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="C5">
-        <v>0.39999999999999997</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D5">
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="H5">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="I5">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="J5">
-        <v>4.3000000000000003E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -584,17 +571,8 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -607,97 +585,61 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="H8">
-        <v>1.8032E-3</v>
-      </c>
-      <c r="I8">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="J8">
-        <v>3.5790000000000003E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1803.2</v>
+        <v>56.377700000000004</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>15.1305</v>
       </c>
       <c r="D9">
-        <v>357.90000000000003</v>
-      </c>
-      <c r="H9">
-        <v>8.3370000000000004E-4</v>
-      </c>
-      <c r="I9">
-        <v>2.3999999999999999E-6</v>
-      </c>
-      <c r="J9">
-        <v>3.0850000000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>833.7</v>
+        <v>85.240300000000005</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
+        <v>38.264699999999998</v>
       </c>
       <c r="D10">
-        <v>308.5</v>
-      </c>
-      <c r="H10">
-        <v>1.1768E-3</v>
-      </c>
-      <c r="I10">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="J10">
-        <v>2.4479999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.1195000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1176.8</v>
+        <v>42.202300000000001</v>
       </c>
       <c r="C11">
-        <v>2.0999999999999996</v>
+        <v>8.8444000000000003</v>
       </c>
       <c r="D11">
-        <v>244.79999999999998</v>
-      </c>
-      <c r="H11">
-        <v>9.3070000000000002E-4</v>
-      </c>
-      <c r="I11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="J11">
-        <v>2.5480000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.5038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>930.7</v>
+        <v>52.260899999999999</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>17.4374</v>
       </c>
       <c r="D12">
-        <v>254.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.3835999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -710,17 +652,8 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -733,97 +666,61 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="H14">
-        <v>0.1339226</v>
-      </c>
-      <c r="I14">
-        <v>2.9899999999999998E-5</v>
-      </c>
-      <c r="J14">
-        <v>2.7542000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>133922.6</v>
+        <v>5704.0839999999998</v>
       </c>
       <c r="C15">
-        <v>29.9</v>
+        <v>1685.5699</v>
       </c>
       <c r="D15">
-        <v>2754.2000000000003</v>
-      </c>
-      <c r="H15">
-        <v>7.8459000000000001E-2</v>
-      </c>
-      <c r="I15">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="J15">
-        <v>1.931E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13.1897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>78459</v>
+        <v>7635.6156000000001</v>
       </c>
       <c r="C16">
-        <v>23.200000000000003</v>
+        <v>3275.5731000000001</v>
       </c>
       <c r="D16">
-        <v>1931</v>
-      </c>
-      <c r="H16">
-        <v>0.1463315</v>
-      </c>
-      <c r="I16">
-        <v>1.98E-5</v>
-      </c>
-      <c r="J16">
-        <v>3.2808999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13.448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>146331.5</v>
+        <v>4188.8842999999997</v>
       </c>
       <c r="C17">
-        <v>19.8</v>
+        <v>839.05529999999999</v>
       </c>
       <c r="D17">
-        <v>3280.8999999999996</v>
-      </c>
-      <c r="H17">
-        <v>7.5682200000000005E-2</v>
-      </c>
-      <c r="I17">
-        <v>2.72E-5</v>
-      </c>
-      <c r="J17">
-        <v>1.4176E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15.601699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>75682.200000000012</v>
+        <v>5268.9434000000001</v>
       </c>
       <c r="C18">
-        <v>27.2</v>
+        <v>1643.8506</v>
       </c>
       <c r="D18">
-        <v>1417.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14.6798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100000</v>
       </c>
@@ -836,17 +733,8 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -859,102 +747,67 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="H20">
-        <v>18.071379199999999</v>
-      </c>
-      <c r="I20">
-        <v>2.496E-4</v>
-      </c>
-      <c r="J20">
-        <v>2.7427099999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
-        <v>18071379.199999999</v>
+        <v>522072.70200000005</v>
       </c>
       <c r="C21">
-        <v>249.6</v>
+        <v>159083.87179999999</v>
       </c>
       <c r="D21">
-        <v>27427.1</v>
-      </c>
-      <c r="H21">
-        <v>8.1508149999999997</v>
-      </c>
-      <c r="I21">
-        <v>2.7149999999999999E-4</v>
-      </c>
-      <c r="J21">
-        <v>2.0621199999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>147.46370000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>8150815</v>
+        <v>718720.99609999999</v>
       </c>
       <c r="C22">
-        <v>271.5</v>
+        <v>319301.38329999999</v>
       </c>
       <c r="D22">
-        <v>20621.2</v>
-      </c>
-      <c r="H22">
-        <v>18.102849500000001</v>
-      </c>
-      <c r="I22">
-        <v>2.9359999999999998E-4</v>
-      </c>
-      <c r="J22">
-        <v>4.7022099999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144.30109999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>18102849.5</v>
+        <v>414997.17090000003</v>
       </c>
       <c r="C23">
-        <v>293.59999999999997</v>
+        <v>81817.074199999988</v>
       </c>
       <c r="D23">
-        <v>47022.1</v>
-      </c>
-      <c r="H23">
-        <v>14.4413953</v>
-      </c>
-      <c r="I23">
-        <v>1.7029999999999999E-4</v>
-      </c>
-      <c r="J23">
-        <v>1.993E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>195.5615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>14441395.300000001</v>
+        <v>528332.01069999998</v>
       </c>
       <c r="C24">
-        <v>170.29999999999998</v>
+        <v>160274.2862</v>
       </c>
       <c r="D24">
-        <v>19930</v>
+        <v>148.23939999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1213,14 +1066,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C55A89-CDF1-473E-A4D1-2C625C6404DA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="eea6e1f0-880d-437b-a5c0-5433583c3468"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4c8c983e-25d7-4138-9944-d2c4b6ec6596"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4c8c983e-25d7-4138-9944-d2c4b6ec6596"/>
-    <ds:schemaRef ds:uri="eea6e1f0-880d-437b-a5c0-5433583c3468"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
